--- a/src/Urbanizace.xlsx
+++ b/src/Urbanizace.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="UKAZATELE" sheetId="2" r:id="rId2"/>
-    <sheet name="METAINFORMACE" sheetId="3" r:id="rId3"/>
+    <sheet name="src" sheetId="4" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="UKAZATELE" sheetId="2" r:id="rId3"/>
+    <sheet name="METAINFORMACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="271">
   <si>
     <t>Data z Veřejné databáze ČSU</t>
   </si>
@@ -73,9 +74,6 @@
   </si>
   <si>
     <t>Hlavní město Praha</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Středočeský kraj</t>
@@ -826,6 +824,15 @@
   </si>
   <si>
     <t>Český statistický úřad, Veřejná databáze</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>venkov</t>
+  </si>
+  <si>
+    <t>mesto</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1104,6 +1111,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1483,9 +1493,1345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>DATA!B9</f>
+        <v>Hlavní město Praha</v>
+      </c>
+      <c r="B2">
+        <f>DATA!H9</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>DATA!I9</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="str">
+        <f>DATA!B11</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B3" s="23">
+        <f>DATA!H11</f>
+        <v>52</v>
+      </c>
+      <c r="C3" s="24">
+        <f>DATA!I11</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="str">
+        <f>DATA!B12</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B4" s="23">
+        <f>DATA!H12</f>
+        <v>57.5</v>
+      </c>
+      <c r="C4" s="24">
+        <f>DATA!I12</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="str">
+        <f>DATA!B13</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B5" s="23">
+        <f>DATA!H13</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C5" s="24">
+        <f>DATA!I13</f>
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="str">
+        <f>DATA!B14</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B6" s="23">
+        <f>DATA!H14</f>
+        <v>56.9</v>
+      </c>
+      <c r="C6" s="24">
+        <f>DATA!I14</f>
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="str">
+        <f>DATA!B15</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B7" s="23">
+        <f>DATA!H15</f>
+        <v>48.3</v>
+      </c>
+      <c r="C7" s="24">
+        <f>DATA!I15</f>
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="str">
+        <f>DATA!B16</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B8" s="23">
+        <f>DATA!H16</f>
+        <v>45.6</v>
+      </c>
+      <c r="C8" s="24">
+        <f>DATA!I16</f>
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="str">
+        <f>DATA!B17</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B9" s="23">
+        <f>DATA!H17</f>
+        <v>38</v>
+      </c>
+      <c r="C9" s="24">
+        <f>DATA!I17</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="str">
+        <f>DATA!B18</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B10" s="23">
+        <f>DATA!H18</f>
+        <v>45.9</v>
+      </c>
+      <c r="C10" s="24">
+        <f>DATA!I18</f>
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="str">
+        <f>DATA!B19</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B11" s="23">
+        <f>DATA!H19</f>
+        <v>50.9</v>
+      </c>
+      <c r="C11" s="24">
+        <f>DATA!I19</f>
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="str">
+        <f>DATA!B20</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B12" s="23">
+        <f>DATA!H20</f>
+        <v>47.7</v>
+      </c>
+      <c r="C12" s="24">
+        <f>DATA!I20</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="str">
+        <f>DATA!B21</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B13" s="23">
+        <f>DATA!H21</f>
+        <v>49.9</v>
+      </c>
+      <c r="C13" s="24">
+        <f>DATA!I21</f>
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="str">
+        <f>DATA!B22</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B14" s="23">
+        <f>DATA!H22</f>
+        <v>61.2</v>
+      </c>
+      <c r="C14" s="24">
+        <f>DATA!I22</f>
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="str">
+        <f>DATA!B24</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B15" s="23">
+        <f>DATA!H24</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C15" s="24">
+        <f>DATA!I24</f>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="str">
+        <f>DATA!B25</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B16" s="23">
+        <f>DATA!H25</f>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24">
+        <f>DATA!I25</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="str">
+        <f>DATA!B26</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B17" s="23">
+        <f>DATA!H26</f>
+        <v>47.7</v>
+      </c>
+      <c r="C17" s="24">
+        <f>DATA!I26</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="str">
+        <f>DATA!B27</f>
+        <v>Písek</v>
+      </c>
+      <c r="B18" s="23">
+        <f>DATA!H27</f>
+        <v>38.9</v>
+      </c>
+      <c r="C18" s="24">
+        <f>DATA!I27</f>
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="str">
+        <f>DATA!B28</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B19" s="23">
+        <f>DATA!H28</f>
+        <v>56</v>
+      </c>
+      <c r="C19" s="24">
+        <f>DATA!I28</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="str">
+        <f>DATA!B29</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B20" s="23">
+        <f>DATA!H29</f>
+        <v>44.1</v>
+      </c>
+      <c r="C20" s="24">
+        <f>DATA!I29</f>
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="str">
+        <f>DATA!B30</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B21" s="23">
+        <f>DATA!H30</f>
+        <v>37</v>
+      </c>
+      <c r="C21" s="24">
+        <f>DATA!I30</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="str">
+        <f>DATA!B32</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B22" s="23">
+        <f>DATA!H32</f>
+        <v>51.5</v>
+      </c>
+      <c r="C22" s="24">
+        <f>DATA!I32</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="str">
+        <f>DATA!B33</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B23" s="23">
+        <f>DATA!H33</f>
+        <v>49.3</v>
+      </c>
+      <c r="C23" s="24">
+        <f>DATA!I33</f>
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="str">
+        <f>DATA!B34</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B24" s="23">
+        <f>DATA!H34</f>
+        <v>7.1</v>
+      </c>
+      <c r="C24" s="24">
+        <f>DATA!I34</f>
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="str">
+        <f>DATA!B35</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B25" s="23">
+        <f>DATA!H35</f>
+        <v>60.2</v>
+      </c>
+      <c r="C25" s="24">
+        <f>DATA!I35</f>
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="str">
+        <f>DATA!B36</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B26" s="23">
+        <f>DATA!H36</f>
+        <v>56.8</v>
+      </c>
+      <c r="C26" s="24">
+        <f>DATA!I36</f>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="str">
+        <f>DATA!B37</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B27" s="23">
+        <f>DATA!H37</f>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="C27" s="24">
+        <f>DATA!I37</f>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="str">
+        <f>DATA!B38</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B28" s="23">
+        <f>DATA!H38</f>
+        <v>43.6</v>
+      </c>
+      <c r="C28" s="24">
+        <f>DATA!I38</f>
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="str">
+        <f>DATA!B40</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B29" s="23">
+        <f>DATA!H40</f>
+        <v>30</v>
+      </c>
+      <c r="C29" s="24">
+        <f>DATA!I40</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="str">
+        <f>DATA!B41</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B30" s="23">
+        <f>DATA!H41</f>
+        <v>29.3</v>
+      </c>
+      <c r="C30" s="24">
+        <f>DATA!I41</f>
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="str">
+        <f>DATA!B42</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B31" s="23">
+        <f>DATA!H42</f>
+        <v>26.6</v>
+      </c>
+      <c r="C31" s="24">
+        <f>DATA!I42</f>
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="str">
+        <f>DATA!B44</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B32" s="23">
+        <f>DATA!H44</f>
+        <v>21</v>
+      </c>
+      <c r="C32" s="24">
+        <f>DATA!I44</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="str">
+        <f>DATA!B45</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B33" s="23">
+        <f>DATA!H45</f>
+        <v>18.7</v>
+      </c>
+      <c r="C33" s="24">
+        <f>DATA!I45</f>
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="str">
+        <f>DATA!B46</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" s="23">
+        <f>DATA!H46</f>
+        <v>51.2</v>
+      </c>
+      <c r="C34" s="24">
+        <f>DATA!I46</f>
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="str">
+        <f>DATA!B47</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" s="23">
+        <f>DATA!H47</f>
+        <v>43.5</v>
+      </c>
+      <c r="C35" s="24">
+        <f>DATA!I47</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="str">
+        <f>DATA!B48</f>
+        <v>Most</v>
+      </c>
+      <c r="B36" s="23">
+        <f>DATA!H48</f>
+        <v>11.9</v>
+      </c>
+      <c r="C36" s="24">
+        <f>DATA!I48</f>
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="str">
+        <f>DATA!B49</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B37" s="23">
+        <f>DATA!H49</f>
+        <v>19</v>
+      </c>
+      <c r="C37" s="24">
+        <f>DATA!I49</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="str">
+        <f>DATA!B50</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B38" s="23">
+        <f>DATA!H50</f>
+        <v>15.5</v>
+      </c>
+      <c r="C38" s="24">
+        <f>DATA!I50</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="str">
+        <f>DATA!B52</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B39" s="23">
+        <f>DATA!H52</f>
+        <v>29</v>
+      </c>
+      <c r="C39" s="24">
+        <f>DATA!I52</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="str">
+        <f>DATA!B53</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B40" s="23">
+        <f>DATA!H53</f>
+        <v>27.8</v>
+      </c>
+      <c r="C40" s="24">
+        <f>DATA!I53</f>
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="str">
+        <f>DATA!B54</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B41" s="23">
+        <f>DATA!H54</f>
+        <v>23.5</v>
+      </c>
+      <c r="C41" s="24">
+        <f>DATA!I54</f>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="str">
+        <f>DATA!B55</f>
+        <v>Semily</v>
+      </c>
+      <c r="B42" s="23">
+        <f>DATA!H55</f>
+        <v>54.3</v>
+      </c>
+      <c r="C42" s="24">
+        <f>DATA!I55</f>
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="str">
+        <f>DATA!B57</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B43" s="23">
+        <f>DATA!H57</f>
+        <v>31.9</v>
+      </c>
+      <c r="C43" s="24">
+        <f>DATA!I57</f>
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="str">
+        <f>DATA!B58</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B44" s="23">
+        <f>DATA!H58</f>
+        <v>52.3</v>
+      </c>
+      <c r="C44" s="24">
+        <f>DATA!I58</f>
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="str">
+        <f>DATA!B59</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B45" s="23">
+        <f>DATA!H59</f>
+        <v>33.6</v>
+      </c>
+      <c r="C45" s="24">
+        <f>DATA!I59</f>
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="str">
+        <f>DATA!B60</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B46" s="23">
+        <f>DATA!H60</f>
+        <v>51.7</v>
+      </c>
+      <c r="C46" s="24">
+        <f>DATA!I60</f>
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="str">
+        <f>DATA!B61</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B47" s="23">
+        <f>DATA!H61</f>
+        <v>39</v>
+      </c>
+      <c r="C47" s="24">
+        <f>DATA!I61</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="str">
+        <f>DATA!B63</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B48" s="23">
+        <f>DATA!H63</f>
+        <v>48.8</v>
+      </c>
+      <c r="C48" s="24">
+        <f>DATA!I63</f>
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="str">
+        <f>DATA!B64</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B49" s="23">
+        <f>DATA!H64</f>
+        <v>32</v>
+      </c>
+      <c r="C49" s="24">
+        <f>DATA!I64</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="str">
+        <f>DATA!B65</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B50" s="23">
+        <f>DATA!H65</f>
+        <v>55.8</v>
+      </c>
+      <c r="C50" s="24">
+        <f>DATA!I65</f>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="str">
+        <f>DATA!B66</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B51" s="23">
+        <f>DATA!H66</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C51" s="24">
+        <f>DATA!I66</f>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="str">
+        <f>DATA!B68</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B52" s="23">
+        <f>DATA!H68</f>
+        <v>45.3</v>
+      </c>
+      <c r="C52" s="24">
+        <f>DATA!I68</f>
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="str">
+        <f>DATA!B69</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B53" s="23">
+        <f>DATA!H69</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C53" s="24">
+        <f>DATA!I69</f>
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="str">
+        <f>DATA!B70</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B54" s="23">
+        <f>DATA!H70</f>
+        <v>50.5</v>
+      </c>
+      <c r="C54" s="24">
+        <f>DATA!I70</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="str">
+        <f>DATA!B71</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B55" s="23">
+        <f>DATA!H71</f>
+        <v>48.8</v>
+      </c>
+      <c r="C55" s="24">
+        <f>DATA!I71</f>
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="str">
+        <f>DATA!B72</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B56" s="23">
+        <f>DATA!H72</f>
+        <v>52.2</v>
+      </c>
+      <c r="C56" s="24">
+        <f>DATA!I72</f>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="str">
+        <f>DATA!B74</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B57" s="23">
+        <f>DATA!H74</f>
+        <v>52.8</v>
+      </c>
+      <c r="C57" s="24">
+        <f>DATA!I74</f>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="str">
+        <f>DATA!B75</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B58" s="23">
+        <f>DATA!H75</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="24">
+        <f>DATA!I75</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="str">
+        <f>DATA!B76</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B59" s="23">
+        <f>DATA!H76</f>
+        <v>61.8</v>
+      </c>
+      <c r="C59" s="24">
+        <f>DATA!I76</f>
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="str">
+        <f>DATA!B77</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B60" s="23">
+        <f>DATA!H77</f>
+        <v>54.4</v>
+      </c>
+      <c r="C60" s="24">
+        <f>DATA!I77</f>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="str">
+        <f>DATA!B78</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B61" s="23">
+        <f>DATA!H78</f>
+        <v>44.4</v>
+      </c>
+      <c r="C61" s="24">
+        <f>DATA!I78</f>
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="str">
+        <f>DATA!B79</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B62" s="23">
+        <f>DATA!H79</f>
+        <v>56.1</v>
+      </c>
+      <c r="C62" s="24">
+        <f>DATA!I79</f>
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="str">
+        <f>DATA!B80</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B63" s="23">
+        <f>DATA!H80</f>
+        <v>62.2</v>
+      </c>
+      <c r="C63" s="24">
+        <f>DATA!I80</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="str">
+        <f>DATA!B82</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B64" s="23">
+        <f>DATA!H82</f>
+        <v>60.7</v>
+      </c>
+      <c r="C64" s="24">
+        <f>DATA!I82</f>
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="str">
+        <f>DATA!B83</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B65" s="23">
+        <f>DATA!H83</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C65" s="24">
+        <f>DATA!I83</f>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="str">
+        <f>DATA!B84</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B66" s="23">
+        <f>DATA!H84</f>
+        <v>59.6</v>
+      </c>
+      <c r="C66" s="24">
+        <f>DATA!I84</f>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="str">
+        <f>DATA!B85</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B67" s="23">
+        <f>DATA!H85</f>
+        <v>41.5</v>
+      </c>
+      <c r="C67" s="24">
+        <f>DATA!I85</f>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="str">
+        <f>DATA!B86</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B68" s="23">
+        <f>DATA!H86</f>
+        <v>40.9</v>
+      </c>
+      <c r="C68" s="24">
+        <f>DATA!I86</f>
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="str">
+        <f>DATA!B88</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B69" s="23">
+        <f>DATA!H88</f>
+        <v>42.6</v>
+      </c>
+      <c r="C69" s="24">
+        <f>DATA!I88</f>
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="str">
+        <f>DATA!B89</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" s="23">
+        <f>DATA!H89</f>
+        <v>43.5</v>
+      </c>
+      <c r="C70" s="24">
+        <f>DATA!I89</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="str">
+        <f>DATA!B90</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B71" s="23">
+        <f>DATA!H90</f>
+        <v>50.6</v>
+      </c>
+      <c r="C71" s="24">
+        <f>DATA!I90</f>
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="str">
+        <f>DATA!B91</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B72" s="23">
+        <f>DATA!H91</f>
+        <v>31.6</v>
+      </c>
+      <c r="C72" s="24">
+        <f>DATA!I91</f>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="str">
+        <f>DATA!B93</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B73" s="23">
+        <f>DATA!H93</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C73" s="24">
+        <f>DATA!I93</f>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="str">
+        <f>DATA!B94</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B74" s="23">
+        <f>DATA!H94</f>
+        <v>32.6</v>
+      </c>
+      <c r="C74" s="24">
+        <f>DATA!I94</f>
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="str">
+        <f>DATA!B95</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B75" s="23">
+        <f>DATA!H95</f>
+        <v>2.7</v>
+      </c>
+      <c r="C75" s="24">
+        <f>DATA!I95</f>
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="str">
+        <f>DATA!B96</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B76" s="23">
+        <f>DATA!H96</f>
+        <v>34.9</v>
+      </c>
+      <c r="C76" s="24">
+        <f>DATA!I96</f>
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="str">
+        <f>DATA!B97</f>
+        <v>Opava</v>
+      </c>
+      <c r="B77" s="23">
+        <f>DATA!H97</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C77" s="24">
+        <f>DATA!I97</f>
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="str">
+        <f>DATA!B98</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B78" s="23">
+        <f>DATA!H98</f>
+        <v>4.2</v>
+      </c>
+      <c r="C78" s="24">
+        <f>DATA!I98</f>
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1505,41 +2851,45 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="25">
+        <f>100-H8-M8</f>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" t="s">
         <v>111</v>
       </c>
-      <c r="N4" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="27" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1622,20 +2972,20 @@
       <c r="C9" s="5">
         <v>100</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -1658,7 +3008,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>100</v>
@@ -1693,13 +3043,13 @@
       <c r="M10" s="6">
         <v>5.2</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>19</v>
+      <c r="N10" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5">
         <v>100</v>
@@ -1728,19 +3078,19 @@
       <c r="K11" s="6">
         <v>29.1</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>19</v>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>100</v>
@@ -1769,19 +3119,19 @@
       <c r="K12" s="6">
         <v>21.3</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>19</v>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>100</v>
@@ -1816,13 +3166,13 @@
       <c r="M13" s="6">
         <v>42.2</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>19</v>
+      <c r="N13" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>100</v>
@@ -1854,16 +3204,16 @@
       <c r="L14" s="6">
         <v>31.4</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>19</v>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>100</v>
@@ -1895,16 +3245,16 @@
       <c r="L15" s="6">
         <v>27.3</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>19</v>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>100</v>
@@ -1933,19 +3283,19 @@
       <c r="K16" s="6">
         <v>50.6</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>19</v>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5">
         <v>100</v>
@@ -1977,16 +3327,16 @@
       <c r="L17" s="5">
         <v>35</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>19</v>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
@@ -2015,19 +3365,19 @@
       <c r="K18" s="6">
         <v>41.1</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>19</v>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
@@ -2056,19 +3406,19 @@
       <c r="K19" s="5">
         <v>27</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>19</v>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5">
         <v>100</v>
@@ -2094,22 +3444,22 @@
       <c r="J20" s="6">
         <v>27.1</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>19</v>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5">
         <v>100</v>
@@ -2141,16 +3491,16 @@
       <c r="L21" s="6">
         <v>28.9</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>19</v>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5">
         <v>100</v>
@@ -2179,19 +3529,19 @@
       <c r="K22" s="6">
         <v>29.1</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>19</v>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5">
         <v>100</v>
@@ -2226,13 +3576,13 @@
       <c r="M23" s="6">
         <v>14.7</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>19</v>
+      <c r="N23" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5">
         <v>100</v>
@@ -2267,13 +3617,13 @@
       <c r="M24" s="5">
         <v>49</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>19</v>
+      <c r="N24" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5">
         <v>100</v>
@@ -2302,19 +3652,19 @@
       <c r="K25" s="6">
         <v>21.5</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>19</v>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5">
         <v>100</v>
@@ -2346,16 +3696,16 @@
       <c r="L26" s="6">
         <v>23.6</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>19</v>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
         <v>100</v>
@@ -2387,16 +3737,16 @@
       <c r="L27" s="6">
         <v>42.2</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>19</v>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5">
         <v>100</v>
@@ -2425,19 +3775,19 @@
       <c r="K28" s="6">
         <v>21.8</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>19</v>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5">
         <v>100</v>
@@ -2469,16 +3819,16 @@
       <c r="L29" s="6">
         <v>32.4</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>19</v>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5">
         <v>100</v>
@@ -2510,16 +3860,16 @@
       <c r="L30" s="6">
         <v>33.799999999999997</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>19</v>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5">
         <v>100</v>
@@ -2560,7 +3910,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5">
         <v>100</v>
@@ -2589,19 +3939,19 @@
       <c r="K32" s="6">
         <v>18.2</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>19</v>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5">
         <v>100</v>
@@ -2633,16 +3983,16 @@
       <c r="L33" s="6">
         <v>25.9</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>19</v>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5">
         <v>100</v>
@@ -2683,7 +4033,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="5">
         <v>100</v>
@@ -2709,22 +4059,22 @@
       <c r="J35" s="6">
         <v>21.4</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>19</v>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="5">
         <v>100</v>
@@ -2750,22 +4100,22 @@
       <c r="J36" s="6">
         <v>9.1</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>19</v>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5">
         <v>100</v>
@@ -2794,19 +4144,19 @@
       <c r="K37" s="6">
         <v>29.1</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>19</v>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="5">
         <v>100</v>
@@ -2835,19 +4185,19 @@
       <c r="K38" s="6">
         <v>23.9</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>19</v>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="5">
         <v>100</v>
@@ -2879,16 +4229,16 @@
       <c r="L39" s="6">
         <v>35.4</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>19</v>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5">
         <v>100</v>
@@ -2920,16 +4270,16 @@
       <c r="L40" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>19</v>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="5">
         <v>100</v>
@@ -2961,16 +4311,16 @@
       <c r="L41" s="6">
         <v>42.4</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>19</v>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5">
         <v>100</v>
@@ -3002,16 +4352,16 @@
       <c r="L42" s="6">
         <v>26.4</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>19</v>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="5">
         <v>100</v>
@@ -3046,13 +4396,13 @@
       <c r="M43" s="6">
         <v>19.5</v>
       </c>
-      <c r="N43" s="11" t="s">
-        <v>19</v>
+      <c r="N43" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5">
         <v>100</v>
@@ -3084,16 +4434,16 @@
       <c r="L44" s="6">
         <v>37.9</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>19</v>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5">
         <v>100</v>
@@ -3125,16 +4475,16 @@
       <c r="L45" s="6">
         <v>39.200000000000003</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>19</v>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5">
         <v>100</v>
@@ -3166,16 +4516,16 @@
       <c r="L46" s="6">
         <v>20.2</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>19</v>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5">
         <v>100</v>
@@ -3204,19 +4554,19 @@
       <c r="K47" s="6">
         <v>43.6</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>19</v>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5">
         <v>100</v>
@@ -3251,13 +4601,13 @@
       <c r="M48" s="6">
         <v>59.1</v>
       </c>
-      <c r="N48" s="11" t="s">
-        <v>19</v>
+      <c r="N48" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="5">
         <v>100</v>
@@ -3289,16 +4639,16 @@
       <c r="L49" s="6">
         <v>38.799999999999997</v>
       </c>
-      <c r="M49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>19</v>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5">
         <v>100</v>
@@ -3333,13 +4683,13 @@
       <c r="M50" s="5">
         <v>78</v>
       </c>
-      <c r="N50" s="11" t="s">
-        <v>19</v>
+      <c r="N50" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="5">
         <v>100</v>
@@ -3380,7 +4730,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="5">
         <v>100</v>
@@ -3412,16 +4762,16 @@
       <c r="L52" s="6">
         <v>36.1</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>19</v>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5">
         <v>100</v>
@@ -3453,16 +4803,16 @@
       <c r="L53" s="6">
         <v>50.7</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>19</v>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="5">
         <v>100</v>
@@ -3503,7 +4853,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5">
         <v>100</v>
@@ -3532,19 +4882,19 @@
       <c r="K55" s="6">
         <v>19.399999999999999</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>19</v>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5">
         <v>100</v>
@@ -3579,13 +4929,13 @@
       <c r="M56" s="6">
         <v>16.8</v>
       </c>
-      <c r="N56" s="11" t="s">
-        <v>19</v>
+      <c r="N56" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="5">
         <v>100</v>
@@ -3620,13 +4970,13 @@
       <c r="M57" s="6">
         <v>56.9</v>
       </c>
-      <c r="N57" s="11" t="s">
-        <v>19</v>
+      <c r="N57" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5">
         <v>100</v>
@@ -3655,19 +5005,19 @@
       <c r="K58" s="6">
         <v>20.6</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>19</v>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="5">
         <v>100</v>
@@ -3699,16 +5049,16 @@
       <c r="L59" s="6">
         <v>18.3</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>19</v>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5">
         <v>100</v>
@@ -3737,19 +5087,19 @@
       <c r="K60" s="6">
         <v>14.1</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>19</v>
+      <c r="L60" s="9">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="5">
         <v>100</v>
@@ -3781,16 +5131,16 @@
       <c r="L61" s="6">
         <v>25.9</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N61" s="11" t="s">
-        <v>19</v>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="5">
         <v>100</v>
@@ -3825,13 +5175,13 @@
       <c r="M62" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="N62" s="11" t="s">
-        <v>19</v>
+      <c r="N62" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="5">
         <v>100</v>
@@ -3863,16 +5213,16 @@
       <c r="L63" s="6">
         <v>22.2</v>
       </c>
-      <c r="M63" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>19</v>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="5">
         <v>100</v>
@@ -3907,13 +5257,13 @@
       <c r="M64" s="6">
         <v>52.8</v>
       </c>
-      <c r="N64" s="11" t="s">
-        <v>19</v>
+      <c r="N64" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="5">
         <v>100</v>
@@ -3942,19 +5292,19 @@
       <c r="K65" s="6">
         <v>35.799999999999997</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>19</v>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5">
         <v>100</v>
@@ -3983,19 +5333,19 @@
       <c r="K66" s="6">
         <v>37.9</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>19</v>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="5">
         <v>100</v>
@@ -4030,13 +5380,13 @@
       <c r="M67" s="5">
         <v>10</v>
       </c>
-      <c r="N67" s="11" t="s">
-        <v>19</v>
+      <c r="N67" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="5">
         <v>100</v>
@@ -4068,16 +5418,16 @@
       <c r="L68" s="6">
         <v>24.5</v>
       </c>
-      <c r="M68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>19</v>
+      <c r="M68" s="9">
+        <v>0</v>
+      </c>
+      <c r="N68" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="5">
         <v>100</v>
@@ -4112,13 +5462,13 @@
       <c r="M69" s="5">
         <v>45</v>
       </c>
-      <c r="N69" s="11" t="s">
-        <v>19</v>
+      <c r="N69" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="5">
         <v>100</v>
@@ -4147,19 +5497,19 @@
       <c r="K70" s="6">
         <v>37.5</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>19</v>
+      <c r="L70" s="9">
+        <v>0</v>
+      </c>
+      <c r="M70" s="9">
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="5">
         <v>100</v>
@@ -4191,16 +5541,16 @@
       <c r="L71" s="6">
         <v>32.799999999999997</v>
       </c>
-      <c r="M71" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N71" s="11" t="s">
-        <v>19</v>
+      <c r="M71" s="9">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="5">
         <v>100</v>
@@ -4232,16 +5582,16 @@
       <c r="L72" s="5">
         <v>18</v>
       </c>
-      <c r="M72" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>19</v>
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="5">
         <v>100</v>
@@ -4282,7 +5632,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="5">
         <v>100</v>
@@ -4314,34 +5664,34 @@
       <c r="L74" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="M74" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>19</v>
+      <c r="M74" s="9">
+        <v>0</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="5">
         <v>100</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>19</v>
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
+        <v>0</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
       </c>
       <c r="I75" s="5">
         <v>100</v>
@@ -4364,7 +5714,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="5">
         <v>100</v>
@@ -4393,25 +5743,25 @@
       <c r="K76" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>19</v>
+      <c r="L76" s="9">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="5">
         <v>100</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>19</v>
+      <c r="D77" s="9">
+        <v>0</v>
       </c>
       <c r="E77" s="5">
         <v>3</v>
@@ -4437,16 +5787,16 @@
       <c r="L77" s="6">
         <v>21.6</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>19</v>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="5">
         <v>100</v>
@@ -4478,16 +5828,16 @@
       <c r="L78" s="5">
         <v>16</v>
       </c>
-      <c r="M78" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>19</v>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="5">
         <v>100</v>
@@ -4519,16 +5869,16 @@
       <c r="L79" s="6">
         <v>23.4</v>
       </c>
-      <c r="M79" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>19</v>
+      <c r="M79" s="9">
+        <v>0</v>
+      </c>
+      <c r="N79" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="5">
         <v>100</v>
@@ -4560,16 +5910,16 @@
       <c r="L80" s="6">
         <v>29.8</v>
       </c>
-      <c r="M80" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>19</v>
+      <c r="M80" s="9">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="5">
         <v>100</v>
@@ -4610,7 +5960,7 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="5">
         <v>100</v>
@@ -4639,19 +5989,19 @@
       <c r="K82" s="6">
         <v>29.2</v>
       </c>
-      <c r="L82" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>19</v>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9">
+        <v>0</v>
+      </c>
+      <c r="N82" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="5">
         <v>100</v>
@@ -4692,7 +6042,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="5">
         <v>100</v>
@@ -4724,16 +6074,16 @@
       <c r="L84" s="6">
         <v>40.4</v>
       </c>
-      <c r="M84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>19</v>
+      <c r="M84" s="9">
+        <v>0</v>
+      </c>
+      <c r="N84" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="5">
         <v>100</v>
@@ -4765,16 +6115,16 @@
       <c r="L85" s="6">
         <v>33.6</v>
       </c>
-      <c r="M85" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>19</v>
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="5">
         <v>100</v>
@@ -4806,16 +6156,16 @@
       <c r="L86" s="6">
         <v>21.7</v>
       </c>
-      <c r="M86" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N86" s="11" t="s">
-        <v>19</v>
+      <c r="M86" s="9">
+        <v>0</v>
+      </c>
+      <c r="N86" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="5">
         <v>100</v>
@@ -4850,13 +6200,13 @@
       <c r="M87" s="6">
         <v>12.9</v>
       </c>
-      <c r="N87" s="11" t="s">
-        <v>19</v>
+      <c r="N87" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="5">
         <v>100</v>
@@ -4888,16 +6238,16 @@
       <c r="L88" s="6">
         <v>27.3</v>
       </c>
-      <c r="M88" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N88" s="11" t="s">
-        <v>19</v>
+      <c r="M88" s="9">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="5">
         <v>100</v>
@@ -4929,22 +6279,22 @@
       <c r="L89" s="6">
         <v>17.7</v>
       </c>
-      <c r="M89" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" s="11" t="s">
-        <v>19</v>
+      <c r="M89" s="9">
+        <v>0</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="5">
         <v>100</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>19</v>
+      <c r="D90" s="9">
+        <v>0</v>
       </c>
       <c r="E90" s="6">
         <v>2.1</v>
@@ -4970,16 +6320,16 @@
       <c r="L90" s="5">
         <v>34</v>
       </c>
-      <c r="M90" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N90" s="11" t="s">
-        <v>19</v>
+      <c r="M90" s="9">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="5">
         <v>100</v>
@@ -5014,13 +6364,13 @@
       <c r="M91" s="6">
         <v>39.200000000000003</v>
       </c>
-      <c r="N91" s="11" t="s">
-        <v>19</v>
+      <c r="N91" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="5">
         <v>100</v>
@@ -5061,7 +6411,7 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="5">
         <v>100</v>
@@ -5093,22 +6443,22 @@
       <c r="L93" s="6">
         <v>25.6</v>
       </c>
-      <c r="M93" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N93" s="11" t="s">
-        <v>19</v>
+      <c r="M93" s="9">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="5">
         <v>100</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>19</v>
+      <c r="D94" s="9">
+        <v>0</v>
       </c>
       <c r="E94" s="6">
         <v>1.7</v>
@@ -5137,25 +6487,25 @@
       <c r="M94" s="6">
         <v>26.7</v>
       </c>
-      <c r="N94" s="11" t="s">
-        <v>19</v>
+      <c r="N94" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="5">
         <v>100</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>19</v>
+      <c r="D95" s="9">
+        <v>0</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="F95" s="9">
+        <v>0</v>
       </c>
       <c r="G95" s="6">
         <v>1.7</v>
@@ -5178,13 +6528,13 @@
       <c r="M95" s="5">
         <v>51</v>
       </c>
-      <c r="N95" s="11" t="s">
-        <v>19</v>
+      <c r="N95" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="5">
         <v>100</v>
@@ -5216,16 +6566,16 @@
       <c r="L96" s="6">
         <v>30.2</v>
       </c>
-      <c r="M96" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>19</v>
+      <c r="M96" s="9">
+        <v>0</v>
+      </c>
+      <c r="N96" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B97" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97" s="5">
         <v>100</v>
@@ -5260,22 +6610,22 @@
       <c r="M97" s="6">
         <v>32.6</v>
       </c>
-      <c r="N97" s="11" t="s">
-        <v>19</v>
+      <c r="N97" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="14">
         <v>100</v>
       </c>
-      <c r="D98" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>19</v>
+      <c r="D98" s="15">
+        <v>0</v>
+      </c>
+      <c r="E98" s="15">
+        <v>0</v>
       </c>
       <c r="F98" s="16">
         <v>0.8</v>
@@ -5307,21 +6657,21 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G102" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M102" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="M102" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +6709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -5375,26 +6725,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5402,27 +6752,27 @@
         <v>4118</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5434,7 +6784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
@@ -5451,29 +6801,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5481,16 +6831,16 @@
         <v>97</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="F5" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5498,7 +6848,7 @@
         <v>97</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>17</v>
@@ -5507,7 +6857,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5515,16 +6865,16 @@
         <v>100</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>135</v>
-      </c>
       <c r="F7" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5532,7 +6882,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>18</v>
@@ -5541,7 +6891,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5549,16 +6899,16 @@
         <v>100</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5566,16 +6916,16 @@
         <v>100</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5583,16 +6933,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5600,16 +6950,16 @@
         <v>100</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5617,16 +6967,16 @@
         <v>100</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5634,16 +6984,16 @@
         <v>100</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5651,16 +7001,16 @@
         <v>100</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5668,16 +7018,16 @@
         <v>100</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -5685,16 +7035,16 @@
         <v>100</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -5702,16 +7052,16 @@
         <v>100</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -5719,16 +7069,16 @@
         <v>100</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -5736,16 +7086,16 @@
         <v>100</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -5753,16 +7103,16 @@
         <v>100</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -5770,16 +7120,16 @@
         <v>101</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="F22" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -5787,16 +7137,16 @@
         <v>101</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -5804,16 +7154,16 @@
         <v>101</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -5821,16 +7171,16 @@
         <v>101</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -5838,16 +7188,16 @@
         <v>101</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -5855,16 +7205,16 @@
         <v>101</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -5872,16 +7222,16 @@
         <v>101</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -5889,16 +7239,16 @@
         <v>101</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -5906,16 +7256,16 @@
         <v>101</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -5923,16 +7273,16 @@
         <v>101</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -5940,16 +7290,16 @@
         <v>101</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -5957,16 +7307,16 @@
         <v>101</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -5974,16 +7324,16 @@
         <v>101</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -5991,16 +7341,16 @@
         <v>101</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -6008,16 +7358,16 @@
         <v>101</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -6025,16 +7375,16 @@
         <v>101</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -6042,16 +7392,16 @@
         <v>101</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -6059,16 +7409,16 @@
         <v>101</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -6076,16 +7426,16 @@
         <v>101</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -6093,16 +7443,16 @@
         <v>101</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -6110,16 +7460,16 @@
         <v>101</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -6127,16 +7477,16 @@
         <v>101</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -6144,16 +7494,16 @@
         <v>101</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -6161,16 +7511,16 @@
         <v>101</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -6178,16 +7528,16 @@
         <v>101</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -6195,16 +7545,16 @@
         <v>101</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -6212,16 +7562,16 @@
         <v>101</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -6229,16 +7579,16 @@
         <v>101</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -6246,16 +7596,16 @@
         <v>101</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -6263,16 +7613,16 @@
         <v>101</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -6280,16 +7630,16 @@
         <v>101</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -6297,16 +7647,16 @@
         <v>101</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -6314,16 +7664,16 @@
         <v>101</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -6331,16 +7681,16 @@
         <v>101</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -6348,16 +7698,16 @@
         <v>101</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -6365,16 +7715,16 @@
         <v>101</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -6382,16 +7732,16 @@
         <v>101</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -6399,16 +7749,16 @@
         <v>101</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -6416,16 +7766,16 @@
         <v>101</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -6433,16 +7783,16 @@
         <v>101</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -6450,16 +7800,16 @@
         <v>101</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -6467,16 +7817,16 @@
         <v>101</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -6484,16 +7834,16 @@
         <v>101</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -6501,16 +7851,16 @@
         <v>101</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -6518,16 +7868,16 @@
         <v>101</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
@@ -6535,16 +7885,16 @@
         <v>101</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
@@ -6552,16 +7902,16 @@
         <v>101</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
@@ -6569,16 +7919,16 @@
         <v>101</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
@@ -6586,16 +7936,16 @@
         <v>101</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
@@ -6603,16 +7953,16 @@
         <v>101</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
@@ -6620,16 +7970,16 @@
         <v>101</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
@@ -6637,16 +7987,16 @@
         <v>101</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
@@ -6654,16 +8004,16 @@
         <v>101</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
@@ -6671,16 +8021,16 @@
         <v>101</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
@@ -6688,16 +8038,16 @@
         <v>101</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
@@ -6705,16 +8055,16 @@
         <v>101</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
@@ -6722,16 +8072,16 @@
         <v>101</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
@@ -6739,16 +8089,16 @@
         <v>101</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
@@ -6756,16 +8106,16 @@
         <v>101</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
@@ -6773,16 +8123,16 @@
         <v>101</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
@@ -6790,16 +8140,16 @@
         <v>101</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
@@ -6807,16 +8157,16 @@
         <v>101</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
@@ -6824,16 +8174,16 @@
         <v>101</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
@@ -6841,16 +8191,16 @@
         <v>101</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
@@ -6858,16 +8208,16 @@
         <v>101</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
@@ -6875,16 +8225,16 @@
         <v>101</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
@@ -6892,16 +8242,16 @@
         <v>101</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
@@ -6909,16 +8259,16 @@
         <v>101</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
@@ -6926,16 +8276,16 @@
         <v>101</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
@@ -6943,16 +8293,16 @@
         <v>101</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
@@ -6960,16 +8310,16 @@
         <v>101</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
@@ -6977,16 +8327,16 @@
         <v>101</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
@@ -6994,16 +8344,16 @@
         <v>101</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
@@ -7011,16 +8361,16 @@
         <v>101</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
@@ -7028,16 +8378,16 @@
         <v>101</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
@@ -7045,16 +8395,16 @@
         <v>101</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
@@ -7062,38 +8412,38 @@
         <v>101</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" t="s">
         <v>127</v>
       </c>
-      <c r="C100" t="s">
-        <v>128</v>
-      </c>
       <c r="D100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" t="s">
         <v>116</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>117</v>
-      </c>
-      <c r="F100" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
@@ -7101,16 +8451,16 @@
         <v>78</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D101" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F101" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
@@ -7118,38 +8468,38 @@
         <v>78</v>
       </c>
       <c r="C102" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D102" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D102" s="20" t="s">
-        <v>232</v>
-      </c>
       <c r="E102" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" t="s">
         <v>127</v>
       </c>
-      <c r="C104" t="s">
-        <v>128</v>
-      </c>
       <c r="D104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" t="s">
         <v>116</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>117</v>
-      </c>
-      <c r="F104" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
@@ -7157,16 +8507,16 @@
         <v>7700</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
@@ -7174,16 +8524,16 @@
         <v>7700</v>
       </c>
       <c r="C106" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="E106" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="20" t="s">
-        <v>237</v>
-      </c>
       <c r="F106" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
@@ -7191,16 +8541,16 @@
         <v>7700</v>
       </c>
       <c r="C107" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="E107" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E107" s="20" t="s">
-        <v>240</v>
-      </c>
       <c r="F107" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
@@ -7208,16 +8558,16 @@
         <v>7700</v>
       </c>
       <c r="C108" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="E108" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E108" s="20" t="s">
-        <v>243</v>
-      </c>
       <c r="F108" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
@@ -7225,16 +8575,16 @@
         <v>7700</v>
       </c>
       <c r="C109" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="E109" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E109" s="20" t="s">
-        <v>246</v>
-      </c>
       <c r="F109" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
@@ -7242,16 +8592,16 @@
         <v>7700</v>
       </c>
       <c r="C110" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="E110" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E110" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="F110" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
@@ -7259,16 +8609,16 @@
         <v>7700</v>
       </c>
       <c r="C111" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="E111" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E111" s="20" t="s">
-        <v>252</v>
-      </c>
       <c r="F111" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
@@ -7276,16 +8626,16 @@
         <v>7700</v>
       </c>
       <c r="C112" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D112" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="E112" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E112" s="20" t="s">
-        <v>255</v>
-      </c>
       <c r="F112" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -7293,16 +8643,16 @@
         <v>7700</v>
       </c>
       <c r="C113" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="E113" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="E113" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="F113" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -7310,16 +8660,16 @@
         <v>7700</v>
       </c>
       <c r="C114" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="E114" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E114" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="F114" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -7327,16 +8677,16 @@
         <v>7700</v>
       </c>
       <c r="C115" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="E115" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E115" s="20" t="s">
-        <v>264</v>
-      </c>
       <c r="F115" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -7344,30 +8694,30 @@
         <v>7700</v>
       </c>
       <c r="C116" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="E116" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="E116" s="20" t="s">
-        <v>267</v>
-      </c>
       <c r="F116" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="D120" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="F120" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
